--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.829488230028716E-07</v>
+        <v>0.001245405197254135</v>
       </c>
       <c r="D2">
-        <v>0.001999970157029685</v>
+        <v>0.02240938001384807</v>
       </c>
       <c r="E2">
-        <v>0.196950928344102</v>
+        <v>0.2434043997816189</v>
       </c>
       <c r="F2">
-        <v>0.2207417344290945</v>
+        <v>0.2524716231943038</v>
       </c>
       <c r="G2">
-        <v>0.0006585651901809264</v>
+        <v>0.0172075437388346</v>
       </c>
       <c r="H2">
-        <v>0.0002775751674188864</v>
+        <v>0.01004846552458516</v>
       </c>
       <c r="I2">
-        <v>2.138459559875017E-06</v>
+        <v>0.001840280335065669</v>
       </c>
       <c r="J2">
-        <v>0.00137902908871923</v>
+        <v>0.004942283565851469</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.829488230028716E-07</v>
+        <v>0.001245405197254135</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.043989448338948E-09</v>
       </c>
       <c r="E3">
-        <v>5.741048525464976E-09</v>
+        <v>0.001520976891660197</v>
       </c>
       <c r="F3">
-        <v>3.35699956721669E-08</v>
+        <v>0.0004757001858719523</v>
       </c>
       <c r="G3">
-        <v>4.440892098500626E-16</v>
+        <v>1.391435199726843E-06</v>
       </c>
       <c r="H3">
-        <v>2.102762408640046E-13</v>
+        <v>5.87940147123156E-06</v>
       </c>
       <c r="I3">
-        <v>2.037621470019069E-05</v>
+        <v>0.0006760435113633001</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.239860466131006E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001999970157029685</v>
+        <v>0.02240938001384807</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.043989448338948E-09</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.036436203562864E-05</v>
+        <v>0.01424890445561555</v>
       </c>
       <c r="F4">
-        <v>0.0002387903959151227</v>
+        <v>0.008849100021360412</v>
       </c>
       <c r="G4">
-        <v>0.7953846556152304</v>
+        <v>0.8004402842736695</v>
       </c>
       <c r="H4">
-        <v>0.6106135000646757</v>
+        <v>0.5823195383159661</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.18838033542113E-09</v>
       </c>
       <c r="J4">
-        <v>2.173816682216057E-13</v>
+        <v>4.538992476743609E-05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.196950928344102</v>
+        <v>0.2434043997816189</v>
       </c>
       <c r="C5">
-        <v>5.741048525464976E-09</v>
+        <v>0.001520976891660197</v>
       </c>
       <c r="D5">
-        <v>3.036436203562864E-05</v>
+        <v>0.01424890445561555</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2952495043171435</v>
+        <v>0.3638407383778444</v>
       </c>
       <c r="G5">
-        <v>7.583642769337651E-05</v>
+        <v>0.01755960468269802</v>
       </c>
       <c r="H5">
-        <v>2.352230817082024E-05</v>
+        <v>0.01147569869285303</v>
       </c>
       <c r="I5">
-        <v>3.285525052021399E-08</v>
+        <v>0.002049300521915765</v>
       </c>
       <c r="J5">
-        <v>0.43564226739776</v>
+        <v>0.5249190524081828</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2207417344290945</v>
+        <v>0.2524716231943038</v>
       </c>
       <c r="C6">
-        <v>3.35699956721669E-08</v>
+        <v>0.0004757001858719523</v>
       </c>
       <c r="D6">
-        <v>0.0002387903959151227</v>
+        <v>0.008849100021360412</v>
       </c>
       <c r="E6">
-        <v>0.2952495043171435</v>
+        <v>0.3638407383778444</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.069557750836395E-05</v>
+        <v>0.006642593734019098</v>
       </c>
       <c r="H6">
-        <v>2.141843242253749E-05</v>
+        <v>0.003779803164086104</v>
       </c>
       <c r="I6">
-        <v>8.306068077779116E-08</v>
+        <v>0.0007265070874398205</v>
       </c>
       <c r="J6">
-        <v>0.003118288464707186</v>
+        <v>0.00930434681100123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0006585651901809264</v>
+        <v>0.0172075437388346</v>
       </c>
       <c r="C7">
-        <v>4.440892098500626E-16</v>
+        <v>1.391435199726843E-06</v>
       </c>
       <c r="D7">
-        <v>0.7953846556152304</v>
+        <v>0.8004402842736695</v>
       </c>
       <c r="E7">
-        <v>7.583642769337651E-05</v>
+        <v>0.01755960468269802</v>
       </c>
       <c r="F7">
-        <v>5.069557750836395E-05</v>
+        <v>0.006642593734019098</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2111167574248483</v>
+        <v>0.3195704027182673</v>
       </c>
       <c r="I7">
-        <v>2.442490654175344E-15</v>
+        <v>5.755291052178535E-06</v>
       </c>
       <c r="J7">
-        <v>1.221245327087672E-14</v>
+        <v>3.908529823970497E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002775751674188864</v>
+        <v>0.01004846552458516</v>
       </c>
       <c r="C8">
-        <v>2.102762408640046E-13</v>
+        <v>5.87940147123156E-06</v>
       </c>
       <c r="D8">
-        <v>0.6106135000646757</v>
+        <v>0.5823195383159661</v>
       </c>
       <c r="E8">
-        <v>2.352230817082024E-05</v>
+        <v>0.01147569869285303</v>
       </c>
       <c r="F8">
-        <v>2.141843242253749E-05</v>
+        <v>0.003779803164086104</v>
       </c>
       <c r="G8">
-        <v>0.2111167574248483</v>
+        <v>0.3195704027182673</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3.950173521616307E-13</v>
+        <v>1.105020764158304E-05</v>
       </c>
       <c r="J8">
-        <v>6.52811138479592E-14</v>
+        <v>2.256782427201287E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.138459559875017E-06</v>
+        <v>0.001840280335065669</v>
       </c>
       <c r="C9">
-        <v>2.037621470019069E-05</v>
+        <v>0.0006760435113633001</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.18838033542113E-09</v>
       </c>
       <c r="E9">
-        <v>3.285525052021399E-08</v>
+        <v>0.002049300521915765</v>
       </c>
       <c r="F9">
-        <v>8.306068077779116E-08</v>
+        <v>0.0007265070874398205</v>
       </c>
       <c r="G9">
-        <v>2.442490654175344E-15</v>
+        <v>5.755291052178535E-06</v>
       </c>
       <c r="H9">
-        <v>3.950173521616307E-13</v>
+        <v>1.105020764158304E-05</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.677304772382485E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00137902908871923</v>
+        <v>0.004942283565851469</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.239860466131006E-06</v>
       </c>
       <c r="D10">
-        <v>2.173816682216057E-13</v>
+        <v>4.538992476743609E-05</v>
       </c>
       <c r="E10">
-        <v>0.43564226739776</v>
+        <v>0.5249190524081828</v>
       </c>
       <c r="F10">
-        <v>0.003118288464707186</v>
+        <v>0.00930434681100123</v>
       </c>
       <c r="G10">
-        <v>1.221245327087672E-14</v>
+        <v>3.908529823970497E-05</v>
       </c>
       <c r="H10">
-        <v>6.52811138479592E-14</v>
+        <v>2.256782427201287E-05</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.677304772382485E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.959522966139672</v>
+        <v>4.02815138357157</v>
       </c>
       <c r="D2">
-        <v>3.107337848194283</v>
+        <v>2.56602960057472</v>
       </c>
       <c r="E2">
-        <v>-1.29208441768181</v>
+        <v>-1.21786281698874</v>
       </c>
       <c r="F2">
-        <v>-1.226157816611729</v>
+        <v>-1.193592427711046</v>
       </c>
       <c r="G2">
-        <v>3.428811029055987</v>
+        <v>2.701455150592083</v>
       </c>
       <c r="H2">
-        <v>3.662529782944486</v>
+        <v>2.974401866180414</v>
       </c>
       <c r="I2">
-        <v>4.798557245909683</v>
+        <v>3.829552381439773</v>
       </c>
       <c r="J2">
-        <v>-3.217861369693121</v>
+        <v>-3.331531058401805</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.959522966139672</v>
+        <v>-4.02815138357157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-10.29135171722337</v>
+        <v>-12.58908705870013</v>
       </c>
       <c r="E3">
-        <v>-5.931965098166953</v>
+        <v>-3.926303524301437</v>
       </c>
       <c r="F3">
-        <v>-5.61376957744174</v>
+        <v>-4.525203327505016</v>
       </c>
       <c r="G3">
-        <v>-8.383129245450355</v>
+        <v>-7.989063045642583</v>
       </c>
       <c r="H3">
-        <v>-7.557705316734175</v>
+        <v>-7.038480500696632</v>
       </c>
       <c r="I3">
-        <v>-4.303699440381243</v>
+        <v>-4.342239038476555</v>
       </c>
       <c r="J3">
-        <v>-9.508474060867384</v>
+        <v>-7.422396709428656</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3.107337848194283</v>
+        <v>-2.56602960057472</v>
       </c>
       <c r="C4">
-        <v>10.29135171722337</v>
+        <v>12.58908705870013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.211099909806323</v>
+        <v>-2.797548512407319</v>
       </c>
       <c r="F4">
-        <v>-3.701982046126242</v>
+        <v>-3.038519125592238</v>
       </c>
       <c r="G4">
-        <v>-0.259469284794405</v>
+        <v>-0.2576305742763857</v>
       </c>
       <c r="H4">
-        <v>0.5095327621901466</v>
+        <v>0.5630303453468123</v>
       </c>
       <c r="I4">
-        <v>9.729668485481534</v>
+        <v>12.24823667788488</v>
       </c>
       <c r="J4">
-        <v>-7.552835781329058</v>
+        <v>-5.808047212796896</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.29208441768181</v>
+        <v>1.21786281698874</v>
       </c>
       <c r="C5">
-        <v>5.931965098166953</v>
+        <v>3.926303524301437</v>
       </c>
       <c r="D5">
-        <v>4.211099909806323</v>
+        <v>2.797548512407319</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.047820995426949</v>
+        <v>0.93861486008703</v>
       </c>
       <c r="G5">
-        <v>3.991865174646992</v>
+        <v>2.691110712780848</v>
       </c>
       <c r="H5">
-        <v>4.270563202135889</v>
+        <v>2.907282146497533</v>
       </c>
       <c r="I5">
-        <v>5.617735777302775</v>
+        <v>3.775064298219911</v>
       </c>
       <c r="J5">
-        <v>-0.7802276393544457</v>
+        <v>-0.6520679940372778</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.226157816611729</v>
+        <v>1.193592427711046</v>
       </c>
       <c r="C6">
-        <v>5.61376957744174</v>
+        <v>4.525203327505016</v>
       </c>
       <c r="D6">
-        <v>3.701982046126242</v>
+        <v>3.038519125592238</v>
       </c>
       <c r="E6">
-        <v>-1.047820995426949</v>
+        <v>-0.93861486008703</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.08954349933869</v>
+        <v>3.182902667460546</v>
       </c>
       <c r="H6">
-        <v>4.29221142272618</v>
+        <v>3.466343396011214</v>
       </c>
       <c r="I6">
-        <v>5.444663144435324</v>
+        <v>4.304982913625855</v>
       </c>
       <c r="J6">
-        <v>-2.970921947625427</v>
+        <v>-3.013225260221992</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.428811029055987</v>
+        <v>-2.701455150592083</v>
       </c>
       <c r="C7">
-        <v>8.383129245450355</v>
+        <v>7.989063045642583</v>
       </c>
       <c r="D7">
-        <v>0.259469284794405</v>
+        <v>0.2576305742763857</v>
       </c>
       <c r="E7">
-        <v>-3.991865174646992</v>
+        <v>-2.691110712780848</v>
       </c>
       <c r="F7">
-        <v>-4.08954349933869</v>
+        <v>-3.182902667460546</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.252176092512276</v>
+        <v>1.032002597761542</v>
       </c>
       <c r="I7">
-        <v>8.180374688552853</v>
+        <v>7.052013475001109</v>
       </c>
       <c r="J7">
-        <v>-7.964908161720409</v>
+        <v>-5.893993492430864</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.662529782944486</v>
+        <v>-2.974401866180414</v>
       </c>
       <c r="C8">
-        <v>7.557705316734175</v>
+        <v>7.038480500696632</v>
       </c>
       <c r="D8">
-        <v>-0.5095327621901466</v>
+        <v>-0.5630303453468123</v>
       </c>
       <c r="E8">
-        <v>-4.270563202135889</v>
+        <v>-2.907282146497533</v>
       </c>
       <c r="F8">
-        <v>-4.29221142272618</v>
+        <v>-3.466343396011214</v>
       </c>
       <c r="G8">
-        <v>-1.252176092512276</v>
+        <v>-1.032002597761542</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.465512154750974</v>
+        <v>6.645042906309448</v>
       </c>
       <c r="J8">
-        <v>-7.726474494694364</v>
+        <v>-6.21484374659826</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.798557245909683</v>
+        <v>-3.829552381439773</v>
       </c>
       <c r="C9">
-        <v>4.303699440381243</v>
+        <v>4.342239038476555</v>
       </c>
       <c r="D9">
-        <v>-9.729668485481534</v>
+        <v>-12.24823667788488</v>
       </c>
       <c r="E9">
-        <v>-5.617735777302775</v>
+        <v>-3.775064298219911</v>
       </c>
       <c r="F9">
-        <v>-5.444663144435324</v>
+        <v>-4.304982913625855</v>
       </c>
       <c r="G9">
-        <v>-8.180374688552853</v>
+        <v>-7.052013475001109</v>
       </c>
       <c r="H9">
-        <v>-7.465512154750974</v>
+        <v>-6.645042906309448</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-9.276754369897526</v>
+        <v>-7.184374872745349</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.217861369693121</v>
+        <v>3.331531058401805</v>
       </c>
       <c r="C10">
-        <v>9.508474060867384</v>
+        <v>7.422396709428656</v>
       </c>
       <c r="D10">
-        <v>7.552835781329058</v>
+        <v>5.808047212796896</v>
       </c>
       <c r="E10">
-        <v>0.7802276393544457</v>
+        <v>0.6520679940372778</v>
       </c>
       <c r="F10">
-        <v>2.970921947625427</v>
+        <v>3.013225260221992</v>
       </c>
       <c r="G10">
-        <v>7.964908161720409</v>
+        <v>5.893993492430864</v>
       </c>
       <c r="H10">
-        <v>7.726474494694364</v>
+        <v>6.21484374659826</v>
       </c>
       <c r="I10">
-        <v>9.276754369897526</v>
+        <v>7.184374872745349</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
         <v>0.548241150447542</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
         <v>0.578071245476774</v>
@@ -1477,42 +1477,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.719684280702942</v>
+        <v>0.7043433626341646</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.7043433626341646</v>
+        <v>0.719684280702942</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>0.7147028466257251</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.9466535455977692</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.001245405197254135</v>
+        <v>0.0001483752849231745</v>
       </c>
       <c r="D2">
-        <v>0.02240938001384807</v>
+        <v>0.09757844902305957</v>
       </c>
       <c r="E2">
-        <v>0.2434043997816189</v>
+        <v>0.1412339583859363</v>
       </c>
       <c r="F2">
-        <v>0.2524716231943038</v>
+        <v>0.001501010282906945</v>
       </c>
       <c r="G2">
-        <v>0.0172075437388346</v>
+        <v>0.02411871654483888</v>
       </c>
       <c r="H2">
-        <v>0.01004846552458516</v>
+        <v>0.02609255985077152</v>
       </c>
       <c r="I2">
-        <v>0.001840280335065669</v>
+        <v>0.000278706971191367</v>
       </c>
       <c r="J2">
-        <v>0.004942283565851469</v>
+        <v>0.6582897927931173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001245405197254135</v>
+        <v>0.0001483752849231745</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.043989448338948E-09</v>
+        <v>2.030833501365237E-09</v>
       </c>
       <c r="E3">
-        <v>0.001520976891660197</v>
+        <v>8.354226199713821E-10</v>
       </c>
       <c r="F3">
-        <v>0.0004757001858719523</v>
+        <v>3.464430943211916E-05</v>
       </c>
       <c r="G3">
-        <v>1.391435199726843E-06</v>
+        <v>2.083480055148357E-10</v>
       </c>
       <c r="H3">
-        <v>5.87940147123156E-06</v>
+        <v>2.941362930997116E-08</v>
       </c>
       <c r="I3">
-        <v>0.0006760435113633001</v>
+        <v>1.132477189358383E-06</v>
       </c>
       <c r="J3">
-        <v>3.239860466131006E-06</v>
+        <v>6.278788779789934E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02240938001384807</v>
+        <v>0.09757844902305957</v>
       </c>
       <c r="C4">
-        <v>5.043989448338948E-09</v>
+        <v>2.030833501365237E-09</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01424890445561555</v>
+        <v>3.612159169108509E-06</v>
       </c>
       <c r="F4">
-        <v>0.008849100021360412</v>
+        <v>0.028308409323206</v>
       </c>
       <c r="G4">
-        <v>0.8004402842736695</v>
+        <v>0.02369171928562674</v>
       </c>
       <c r="H4">
-        <v>0.5823195383159661</v>
+        <v>0.09943394059058175</v>
       </c>
       <c r="I4">
-        <v>7.18838033542113E-09</v>
+        <v>7.539364910158497E-09</v>
       </c>
       <c r="J4">
-        <v>4.538992476743609E-05</v>
+        <v>0.03897286109178366</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2434043997816189</v>
+        <v>0.1412339583859363</v>
       </c>
       <c r="C5">
-        <v>0.001520976891660197</v>
+        <v>8.354226199713821E-10</v>
       </c>
       <c r="D5">
-        <v>0.01424890445561555</v>
+        <v>3.612159169108509E-06</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3638407383778444</v>
+        <v>0.04437679288651464</v>
       </c>
       <c r="G5">
-        <v>0.01755960468269802</v>
+        <v>0.005465764074862545</v>
       </c>
       <c r="H5">
-        <v>0.01147569869285303</v>
+        <v>0.02533910906553816</v>
       </c>
       <c r="I5">
-        <v>0.002049300521915765</v>
+        <v>2.938238319316611E-09</v>
       </c>
       <c r="J5">
-        <v>0.5249190524081828</v>
+        <v>0.0704162971194211</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2524716231943038</v>
+        <v>0.001501010282906945</v>
       </c>
       <c r="C6">
-        <v>0.0004757001858719523</v>
+        <v>3.464430943211916E-05</v>
       </c>
       <c r="D6">
-        <v>0.008849100021360412</v>
+        <v>0.028308409323206</v>
       </c>
       <c r="E6">
-        <v>0.3638407383778444</v>
+        <v>0.04437679288651464</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.006642593734019098</v>
+        <v>0.00577233365932206</v>
       </c>
       <c r="H6">
-        <v>0.003779803164086104</v>
+        <v>0.005687533181074178</v>
       </c>
       <c r="I6">
-        <v>0.0007265070874398205</v>
+        <v>6.380737725675267E-05</v>
       </c>
       <c r="J6">
-        <v>0.00930434681100123</v>
+        <v>0.08522993867398698</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0172075437388346</v>
+        <v>0.02411871654483888</v>
       </c>
       <c r="C7">
-        <v>1.391435199726843E-06</v>
+        <v>2.083480055148357E-10</v>
       </c>
       <c r="D7">
-        <v>0.8004402842736695</v>
+        <v>0.02369171928562674</v>
       </c>
       <c r="E7">
-        <v>0.01755960468269802</v>
+        <v>0.005465764074862545</v>
       </c>
       <c r="F7">
-        <v>0.006642593734019098</v>
+        <v>0.00577233365932206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3195704027182673</v>
+        <v>0.2760191011513484</v>
       </c>
       <c r="I7">
-        <v>5.755291052178535E-06</v>
+        <v>2.821392008911516E-10</v>
       </c>
       <c r="J7">
-        <v>3.908529823970497E-05</v>
+        <v>0.003592756868872504</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01004846552458516</v>
+        <v>0.02609255985077152</v>
       </c>
       <c r="C8">
-        <v>5.87940147123156E-06</v>
+        <v>2.941362930997116E-08</v>
       </c>
       <c r="D8">
-        <v>0.5823195383159661</v>
+        <v>0.09943394059058175</v>
       </c>
       <c r="E8">
-        <v>0.01147569869285303</v>
+        <v>0.02533910906553816</v>
       </c>
       <c r="F8">
-        <v>0.003779803164086104</v>
+        <v>0.005687533181074178</v>
       </c>
       <c r="G8">
-        <v>0.3195704027182673</v>
+        <v>0.2760191011513484</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.105020764158304E-05</v>
+        <v>6.238728089691392E-08</v>
       </c>
       <c r="J8">
-        <v>2.256782427201287E-05</v>
+        <v>0.003230598266196871</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001840280335065669</v>
+        <v>0.000278706971191367</v>
       </c>
       <c r="C9">
-        <v>0.0006760435113633001</v>
+        <v>1.132477189358383E-06</v>
       </c>
       <c r="D9">
-        <v>7.18838033542113E-09</v>
+        <v>7.539364910158497E-09</v>
       </c>
       <c r="E9">
-        <v>0.002049300521915765</v>
+        <v>2.938238319316611E-09</v>
       </c>
       <c r="F9">
-        <v>0.0007265070874398205</v>
+        <v>6.380737725675267E-05</v>
       </c>
       <c r="G9">
-        <v>5.755291052178535E-06</v>
+        <v>2.821392008911516E-10</v>
       </c>
       <c r="H9">
-        <v>1.105020764158304E-05</v>
+        <v>6.238728089691392E-08</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4.677304772382485E-06</v>
+        <v>1.269038901496877E-05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004942283565851469</v>
+        <v>0.6582897927931173</v>
       </c>
       <c r="C10">
-        <v>3.239860466131006E-06</v>
+        <v>6.278788779789934E-06</v>
       </c>
       <c r="D10">
-        <v>4.538992476743609E-05</v>
+        <v>0.03897286109178366</v>
       </c>
       <c r="E10">
-        <v>0.5249190524081828</v>
+        <v>0.0704162971194211</v>
       </c>
       <c r="F10">
-        <v>0.00930434681100123</v>
+        <v>0.08522993867398698</v>
       </c>
       <c r="G10">
-        <v>3.908529823970497E-05</v>
+        <v>0.003592756868872504</v>
       </c>
       <c r="H10">
-        <v>2.256782427201287E-05</v>
+        <v>0.003230598266196871</v>
       </c>
       <c r="I10">
-        <v>4.677304772382485E-06</v>
+        <v>1.269038901496877E-05</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.02815138357157</v>
+        <v>4.574271903548021</v>
       </c>
       <c r="D2">
-        <v>2.56602960057472</v>
+        <v>1.73032039903993</v>
       </c>
       <c r="E2">
-        <v>-1.21786281698874</v>
+        <v>1.526100723889702</v>
       </c>
       <c r="F2">
-        <v>-1.193592427711046</v>
+        <v>-3.624273843588002</v>
       </c>
       <c r="G2">
-        <v>2.701455150592083</v>
+        <v>2.422125696836483</v>
       </c>
       <c r="H2">
-        <v>2.974401866180414</v>
+        <v>2.385565583691887</v>
       </c>
       <c r="I2">
-        <v>3.829552381439773</v>
+        <v>4.316182596146815</v>
       </c>
       <c r="J2">
-        <v>-3.331531058401805</v>
+        <v>0.448343509852931</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.02815138357157</v>
+        <v>-4.574271903548021</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-12.58908705870013</v>
+        <v>-9.71677396145064</v>
       </c>
       <c r="E3">
-        <v>-3.926303524301437</v>
+        <v>-10.20365158198584</v>
       </c>
       <c r="F3">
-        <v>-4.525203327505016</v>
+        <v>-5.173524624974731</v>
       </c>
       <c r="G3">
-        <v>-7.989063045642583</v>
+        <v>-10.99729786855043</v>
       </c>
       <c r="H3">
-        <v>-7.038480500696632</v>
+        <v>-8.339407187357448</v>
       </c>
       <c r="I3">
-        <v>-4.342239038476555</v>
+        <v>-6.636133006886675</v>
       </c>
       <c r="J3">
-        <v>-7.422396709428656</v>
+        <v>-5.891585465841631</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.56602960057472</v>
+        <v>-1.73032039903993</v>
       </c>
       <c r="C4">
-        <v>12.58908705870013</v>
+        <v>9.71677396145064</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.797548512407319</v>
+        <v>-6.128846193918658</v>
       </c>
       <c r="F4">
-        <v>-3.038519125592238</v>
+        <v>-2.347449959979445</v>
       </c>
       <c r="G4">
-        <v>-0.2576305742763857</v>
+        <v>2.430398040847725</v>
       </c>
       <c r="H4">
-        <v>0.5630303453468123</v>
+        <v>1.720199808883389</v>
       </c>
       <c r="I4">
-        <v>12.24823667788488</v>
+        <v>9.025233386926049</v>
       </c>
       <c r="J4">
-        <v>-5.808047212796896</v>
+        <v>-2.195450061883427</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.21786281698874</v>
+        <v>-1.526100723889702</v>
       </c>
       <c r="C5">
-        <v>3.926303524301437</v>
+        <v>10.20365158198584</v>
       </c>
       <c r="D5">
-        <v>2.797548512407319</v>
+        <v>6.128846193918658</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.93861486008703</v>
+        <v>-2.13245952579829</v>
       </c>
       <c r="G5">
-        <v>2.691110712780848</v>
+        <v>3.080723536401205</v>
       </c>
       <c r="H5">
-        <v>2.907282146497533</v>
+        <v>2.399209268320859</v>
       </c>
       <c r="I5">
-        <v>3.775064298219911</v>
+        <v>9.518824116676583</v>
       </c>
       <c r="J5">
-        <v>-0.6520679940372778</v>
+        <v>-1.901480097944741</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.193592427711046</v>
+        <v>3.624273843588002</v>
       </c>
       <c r="C6">
-        <v>4.525203327505016</v>
+        <v>5.173524624974731</v>
       </c>
       <c r="D6">
-        <v>3.038519125592238</v>
+        <v>2.347449959979445</v>
       </c>
       <c r="E6">
-        <v>-0.93861486008703</v>
+        <v>2.13245952579829</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.182902667460546</v>
+        <v>3.05731850883121</v>
       </c>
       <c r="H6">
-        <v>3.466343396011214</v>
+        <v>3.063670461630086</v>
       </c>
       <c r="I6">
-        <v>4.304982913625855</v>
+        <v>4.92096710331034</v>
       </c>
       <c r="J6">
-        <v>-3.013225260221992</v>
+        <v>1.802221523771159</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.701455150592083</v>
+        <v>-2.422125696836483</v>
       </c>
       <c r="C7">
-        <v>7.989063045642583</v>
+        <v>10.99729786855043</v>
       </c>
       <c r="D7">
-        <v>0.2576305742763857</v>
+        <v>-2.430398040847725</v>
       </c>
       <c r="E7">
-        <v>-2.691110712780848</v>
+        <v>-3.080723536401205</v>
       </c>
       <c r="F7">
-        <v>-3.182902667460546</v>
+        <v>-3.05731850883121</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.032002597761542</v>
+        <v>-1.117062644578293</v>
       </c>
       <c r="I7">
-        <v>7.052013475001109</v>
+        <v>10.82051002980219</v>
       </c>
       <c r="J7">
-        <v>-5.893993492430864</v>
+        <v>-3.259240996995841</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.974401866180414</v>
+        <v>-2.385565583691887</v>
       </c>
       <c r="C8">
-        <v>7.038480500696632</v>
+        <v>8.339407187357448</v>
       </c>
       <c r="D8">
-        <v>-0.5630303453468123</v>
+        <v>-1.720199808883389</v>
       </c>
       <c r="E8">
-        <v>-2.907282146497533</v>
+        <v>-2.399209268320859</v>
       </c>
       <c r="F8">
-        <v>-3.466343396011214</v>
+        <v>-3.063670461630086</v>
       </c>
       <c r="G8">
-        <v>-1.032002597761542</v>
+        <v>1.117062644578293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.645042906309448</v>
+        <v>7.973387204565574</v>
       </c>
       <c r="J8">
-        <v>-6.21484374659826</v>
+        <v>-3.304086844091547</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.829552381439773</v>
+        <v>-4.316182596146815</v>
       </c>
       <c r="C9">
-        <v>4.342239038476555</v>
+        <v>6.636133006886675</v>
       </c>
       <c r="D9">
-        <v>-12.24823667788488</v>
+        <v>-9.025233386926049</v>
       </c>
       <c r="E9">
-        <v>-3.775064298219911</v>
+        <v>-9.518824116676583</v>
       </c>
       <c r="F9">
-        <v>-4.304982913625855</v>
+        <v>-4.92096710331034</v>
       </c>
       <c r="G9">
-        <v>-7.052013475001109</v>
+        <v>-10.82051002980219</v>
       </c>
       <c r="H9">
-        <v>-6.645042906309448</v>
+        <v>-7.973387204565574</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.184374872745349</v>
+        <v>-5.593281891062668</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.331531058401805</v>
+        <v>-0.448343509852931</v>
       </c>
       <c r="C10">
-        <v>7.422396709428656</v>
+        <v>5.891585465841631</v>
       </c>
       <c r="D10">
-        <v>5.808047212796896</v>
+        <v>2.195450061883427</v>
       </c>
       <c r="E10">
-        <v>0.6520679940372778</v>
+        <v>1.901480097944741</v>
       </c>
       <c r="F10">
-        <v>3.013225260221992</v>
+        <v>-1.802221523771159</v>
       </c>
       <c r="G10">
-        <v>5.893993492430864</v>
+        <v>3.259240996995841</v>
       </c>
       <c r="H10">
-        <v>6.21484374659826</v>
+        <v>3.304086844091547</v>
       </c>
       <c r="I10">
-        <v>7.184374872745349</v>
+        <v>5.593281891062668</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0.548241150447542</v>
+        <v>0.5449775863837693</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,24 +1460,24 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="F3">
-        <v>0.578071245476774</v>
+        <v>0.5689607730355942</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1492,92 +1492,92 @@
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.7043433626341646</v>
+        <v>0.7590104790790922</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.719684280702942</v>
+        <v>0.8548487170623995</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7147028466257251</v>
+        <v>0.7704719163144619</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9466535455977692</v>
+        <v>0.8807377634720996</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.054448770626301</v>
+        <v>0.7195530138050085</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9701992056259899</v>
+        <v>0.7298520223723688</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.105098924108501</v>
+        <v>0.8454139596387297</v>
       </c>
     </row>
   </sheetData>
